--- a/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_44_.xlsx
+++ b/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_44_.xlsx
@@ -105,13 +105,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -142,8 +165,130 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -331,13 +476,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -368,8 +543,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -557,13 +889,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -594,8 +956,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -783,13 +1302,40 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -820,8 +1366,150 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Bay Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Storage Day</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Container Status</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Container Status Name</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
